--- a/hgs/常用关键词库.xlsx
+++ b/hgs/常用关键词库.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20400" windowHeight="10005" firstSheet="1" activeTab="4"/>
+    <workbookView windowWidth="28695" windowHeight="14220" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="关键词" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,6 @@
     <definedName name="recommended_browse_nodes_">'[1]Dropdown Lists'!$A$4</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
-  <extLst/>
 </workbook>
 </file>
 
@@ -37,7 +36,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -58,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339">
   <si>
     <t>类型</t>
   </si>
@@ -788,6 +786,9 @@
   </si>
   <si>
     <t>骷髅头被套160</t>
+  </si>
+  <si>
+    <t>男长裤</t>
   </si>
   <si>
     <t>品名</t>
@@ -1080,10 +1081,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
@@ -1120,18 +1121,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color indexed="62"/>
@@ -1140,7 +1129,26 @@
     </font>
     <font>
       <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -1153,23 +1161,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color indexed="62"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
     </font>
     <font>
       <u/>
@@ -1188,42 +1188,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="52"/>
+      <color indexed="62"/>
       <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1237,6 +1204,40 @@
       <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="0"/>
     </font>
   </fonts>
   <fills count="20">
@@ -1290,18 +1291,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="25"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="46"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1314,7 +1303,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="25"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1338,18 +1351,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="31"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1365,30 +1366,41 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="49"/>
+      </top>
+      <bottom style="double">
+        <color indexed="49"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1403,17 +1415,6 @@
       </top>
       <bottom style="thin">
         <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="49"/>
-      </top>
-      <bottom style="double">
-        <color indexed="49"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1437,7 +1438,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="49"/>
+        <color indexed="44"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="52"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1446,22 +1456,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="44"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="63"/>
-      </left>
-      <right style="thin">
-        <color indexed="63"/>
-      </right>
-      <top style="thin">
-        <color indexed="63"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="63"/>
+        <color indexed="49"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1481,11 +1476,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="52"/>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1494,109 +1495,106 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1611,31 +1609,34 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1721,59 +1722,60 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
-    <cellStyle name="强调文字颜色 4" xfId="4"/>
-    <cellStyle name="百分比" xfId="5" builtinId="5"/>
-    <cellStyle name="货币[0]" xfId="6" builtinId="7"/>
-    <cellStyle name="标题" xfId="7"/>
-    <cellStyle name="输入" xfId="8"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="9"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="10"/>
-    <cellStyle name="差" xfId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="12"/>
-    <cellStyle name="超链接" xfId="13" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="14" builtinId="9"/>
-    <cellStyle name="注释" xfId="15"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="16"/>
-    <cellStyle name="标题 4" xfId="17"/>
-    <cellStyle name="警告文本" xfId="18"/>
-    <cellStyle name="解释性文本" xfId="19"/>
-    <cellStyle name="标题 1" xfId="20"/>
-    <cellStyle name="标题 2" xfId="21"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="22"/>
-    <cellStyle name="标题 3" xfId="23"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="24"/>
-    <cellStyle name="输出" xfId="25"/>
-    <cellStyle name="计算" xfId="26"/>
-    <cellStyle name="检查单元格" xfId="27"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="28"/>
-    <cellStyle name="强调文字颜色 2" xfId="29"/>
-    <cellStyle name="链接单元格" xfId="30"/>
-    <cellStyle name="汇总" xfId="31"/>
-    <cellStyle name="好" xfId="32"/>
-    <cellStyle name="适中" xfId="33"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="34"/>
-    <cellStyle name="强调文字颜色 1" xfId="35"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="36"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="37"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="38"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="39"/>
-    <cellStyle name="强调文字颜色 3" xfId="40"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42"/>
-    <cellStyle name="强调文字颜色 5" xfId="43"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45"/>
-    <cellStyle name="强调文字颜色 6" xfId="46"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
       <font>
         <name val="Calibri"/>
+        <scheme val="none"/>
         <family val="2"/>
         <b val="0"/>
         <i val="0"/>
@@ -1781,7 +1783,7 @@
         <color indexed="8"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
           <fgColor indexed="10"/>
           <bgColor indexed="9"/>
         </patternFill>
@@ -1802,6 +1804,12 @@
       </border>
     </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1894,71 +1902,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
         <a:font script="Khmr" typeface="MoolBoran"/>
         <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
         <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
         <a:font script="Khmr" typeface="DaunPenh"/>
         <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
         <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2170,12 +2178,11 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C47"/>
   <sheetViews>
@@ -2600,7 +2607,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C17"/>
   <sheetViews>
@@ -2794,12 +2801,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -3056,7 +3063,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E15"/>
   <sheetViews>
@@ -3287,12 +3294,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3368,11 +3375,11 @@
         <v>1.2</v>
       </c>
       <c r="D3" s="1">
-        <f>C3*50+20</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="E3" s="5">
-        <f>(B3+D3)*1.6/7.4-1.99</f>
+        <f t="shared" si="1"/>
         <v>48.8208108108108</v>
       </c>
       <c r="F3" s="6">
@@ -3380,7 +3387,7 @@
         <v>58.584972972973</v>
       </c>
       <c r="G3" s="5">
-        <f>(B3+D3)*1.6/7.4</f>
+        <f t="shared" si="2"/>
         <v>50.8108108108108</v>
       </c>
       <c r="J3" s="8"/>
@@ -3396,19 +3403,19 @@
         <v>1.4</v>
       </c>
       <c r="D4" s="1">
-        <f>C4*50+20</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="E4" s="5">
-        <f>(B4+D4)*1.6/7.4-1.99</f>
+        <f t="shared" si="1"/>
         <v>53.1451351351351</v>
       </c>
       <c r="F4" s="6">
-        <f>E4*1.2</f>
+        <f t="shared" si="3"/>
         <v>63.7741621621621</v>
       </c>
       <c r="G4" s="5">
-        <f>(B4+D4)*1.6/7.4</f>
+        <f t="shared" si="2"/>
         <v>55.1351351351351</v>
       </c>
       <c r="J4" s="8"/>
@@ -3424,19 +3431,19 @@
         <v>1.5</v>
       </c>
       <c r="D5" s="1">
-        <f>C5*50+20</f>
+        <f t="shared" si="0"/>
         <v>95</v>
       </c>
       <c r="E5" s="5">
-        <f>(B5+D5)*1.6/7.4-1.99</f>
+        <f t="shared" si="1"/>
         <v>55.0910810810811</v>
       </c>
       <c r="F5" s="6">
-        <f>E5*1.2</f>
+        <f t="shared" si="3"/>
         <v>66.1092972972973</v>
       </c>
       <c r="G5" s="5">
-        <f>(B5+D5)*1.6/7.4</f>
+        <f t="shared" si="2"/>
         <v>57.0810810810811</v>
       </c>
       <c r="J5" s="8"/>
@@ -3452,19 +3459,19 @@
         <v>1.2</v>
       </c>
       <c r="D6" s="1">
-        <f>C6*50+20</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="E6" s="5">
-        <f>(B6+D6)*1.6/7.4-1.99</f>
+        <f t="shared" si="1"/>
         <v>34.7667567567568</v>
       </c>
       <c r="F6" s="6">
-        <f>E6*1.2</f>
+        <f t="shared" si="3"/>
         <v>41.7201081081081</v>
       </c>
       <c r="G6" s="5">
-        <f>(B6+D6)*1.6/7.4</f>
+        <f t="shared" si="2"/>
         <v>36.7567567567568</v>
       </c>
       <c r="J6" s="8"/>
@@ -3480,19 +3487,19 @@
         <v>1.2</v>
       </c>
       <c r="D7" s="1">
-        <f>C7*50+20</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="E7" s="5">
-        <f>(B7+D7)*1.6/7.4-1.99</f>
+        <f t="shared" si="1"/>
         <v>35.8478378378378</v>
       </c>
       <c r="F7" s="6">
-        <f>E7*1.2</f>
+        <f t="shared" si="3"/>
         <v>43.0174054054054</v>
       </c>
       <c r="G7" s="5">
-        <f>(B7+D7)*1.6/7.4</f>
+        <f t="shared" si="2"/>
         <v>37.8378378378378</v>
       </c>
       <c r="J7" s="8"/>
@@ -3508,19 +3515,19 @@
         <v>1.5</v>
       </c>
       <c r="D8" s="1">
-        <f>C8*50+20</f>
+        <f t="shared" si="0"/>
         <v>95</v>
       </c>
       <c r="E8" s="5">
-        <f>(B8+D8)*1.6/7.4-1.99</f>
+        <f t="shared" si="1"/>
         <v>39.9559459459459</v>
       </c>
       <c r="F8" s="6">
-        <f>E8*1.2</f>
+        <f t="shared" si="3"/>
         <v>47.9471351351351</v>
       </c>
       <c r="G8" s="5">
-        <f>(B8+D8)*1.6/7.4</f>
+        <f t="shared" si="2"/>
         <v>41.945945945946</v>
       </c>
       <c r="J8" s="8"/>
@@ -3536,19 +3543,19 @@
         <v>0.5</v>
       </c>
       <c r="D9" s="1">
-        <f>C9*50+20</f>
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="E9" s="5">
-        <f>(B9+D9)*1.6/7.4-1.99</f>
+        <f t="shared" si="1"/>
         <v>18.5505405405405</v>
       </c>
       <c r="F9" s="6">
-        <f>E9*1.2</f>
+        <f t="shared" si="3"/>
         <v>22.2606486486487</v>
       </c>
       <c r="G9" s="5">
-        <f>(B9+D9)*1.6/7.4</f>
+        <f t="shared" si="2"/>
         <v>20.5405405405405</v>
       </c>
       <c r="J9" s="8"/>
@@ -3564,19 +3571,19 @@
         <v>0.2</v>
       </c>
       <c r="D10" s="1">
-        <f>C10*50+20</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="E10" s="5">
-        <f>(B10+D10)*1.6/7.4-1.99</f>
+        <f t="shared" si="1"/>
         <v>12.0640540540541</v>
       </c>
       <c r="F10" s="6">
-        <f>E10*1.2</f>
+        <f t="shared" si="3"/>
         <v>14.4768648648649</v>
       </c>
       <c r="G10" s="5">
-        <f>(B10+D10)*1.6/7.4</f>
+        <f t="shared" si="2"/>
         <v>14.0540540540541</v>
       </c>
       <c r="J10" s="8"/>
@@ -3592,19 +3599,19 @@
         <v>0.2</v>
       </c>
       <c r="D11" s="1">
-        <f>C11*50+20</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="E11" s="5">
-        <f>(B11+D11)*1.6/7.4-1.99</f>
+        <f t="shared" si="1"/>
         <v>8.82081081081081</v>
       </c>
       <c r="F11" s="6">
-        <f>E11*1.2</f>
+        <f t="shared" si="3"/>
         <v>10.584972972973</v>
       </c>
       <c r="G11" s="5">
-        <f>(B11+D11)*1.6/7.4</f>
+        <f t="shared" si="2"/>
         <v>10.8108108108108</v>
       </c>
       <c r="J11" s="8"/>
@@ -3620,19 +3627,19 @@
         <v>0.2</v>
       </c>
       <c r="D12" s="1">
-        <f>C12*50+20</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="E12" s="5">
-        <f>(B12+D12)*1.6/7.4-1.99</f>
+        <f t="shared" si="1"/>
         <v>12.0640540540541</v>
       </c>
       <c r="F12" s="6">
-        <f>E12*1.2</f>
+        <f t="shared" si="3"/>
         <v>14.4768648648649</v>
       </c>
       <c r="G12" s="5">
-        <f>(B12+D12)*1.6/7.4</f>
+        <f t="shared" si="2"/>
         <v>14.0540540540541</v>
       </c>
       <c r="J12" s="8"/>
@@ -3648,19 +3655,19 @@
         <v>0.3</v>
       </c>
       <c r="D13" s="1">
-        <f>C13*50+20</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="E13" s="5">
-        <f>(B13+D13)*1.6/7.4-1.99</f>
+        <f t="shared" si="1"/>
         <v>13.1451351351351</v>
       </c>
       <c r="F13" s="6">
-        <f>E13*1.2</f>
+        <f t="shared" si="3"/>
         <v>15.7741621621622</v>
       </c>
       <c r="G13" s="5">
-        <f>(B13+D13)*1.6/7.4</f>
+        <f t="shared" si="2"/>
         <v>15.1351351351351</v>
       </c>
       <c r="J13" s="8"/>
@@ -3676,19 +3683,19 @@
         <v>1.8</v>
       </c>
       <c r="D14" s="1">
-        <f>C14*50+20</f>
+        <f t="shared" si="0"/>
         <v>110</v>
       </c>
       <c r="E14" s="5">
-        <f>(B14+D14)*1.6/7.4-1.99</f>
+        <f t="shared" si="1"/>
         <v>40.1721621621622</v>
       </c>
       <c r="F14" s="6">
-        <f>E14*1.2</f>
+        <f t="shared" si="3"/>
         <v>48.2065945945946</v>
       </c>
       <c r="G14" s="5">
-        <f>(B14+D14)*1.6/7.4</f>
+        <f t="shared" si="2"/>
         <v>42.1621621621622</v>
       </c>
       <c r="J14" s="8"/>
@@ -3704,19 +3711,19 @@
         <v>2.2</v>
       </c>
       <c r="D15" s="1">
-        <f>C15*50+20</f>
+        <f t="shared" si="0"/>
         <v>130</v>
       </c>
       <c r="E15" s="5">
-        <f>(B15+D15)*1.6/7.4-1.99</f>
+        <f t="shared" si="1"/>
         <v>46.6586486486486</v>
       </c>
       <c r="F15" s="6">
-        <f>E15*1.2</f>
+        <f t="shared" si="3"/>
         <v>55.9903783783784</v>
       </c>
       <c r="G15" s="5">
-        <f>(B15+D15)*1.6/7.4</f>
+        <f t="shared" si="2"/>
         <v>48.6486486486486</v>
       </c>
       <c r="J15" s="8"/>
@@ -3732,19 +3739,19 @@
         <v>2.3</v>
       </c>
       <c r="D16" s="1">
-        <f>C16*50+20</f>
+        <f t="shared" si="0"/>
         <v>135</v>
       </c>
       <c r="E16" s="5">
-        <f>(B16+D16)*1.6/7.4-1.99</f>
+        <f t="shared" si="1"/>
         <v>49.9018918918919</v>
       </c>
       <c r="F16" s="6">
-        <f>E16*1.2</f>
+        <f t="shared" si="3"/>
         <v>59.8822702702703</v>
       </c>
       <c r="G16" s="5">
-        <f>(B16+D16)*1.6/7.4</f>
+        <f t="shared" si="2"/>
         <v>51.8918918918919</v>
       </c>
       <c r="J16" s="8"/>
@@ -3760,19 +3767,19 @@
         <v>1.5</v>
       </c>
       <c r="D17" s="1">
-        <f>C17*50+20</f>
+        <f t="shared" si="0"/>
         <v>95</v>
       </c>
       <c r="E17" s="5">
-        <f>(B17+D17)*1.6/7.4-1.99</f>
+        <f t="shared" si="1"/>
         <v>43.6316216216216</v>
       </c>
       <c r="F17" s="6">
-        <f>E17*1.2</f>
+        <f t="shared" si="3"/>
         <v>52.3579459459459</v>
       </c>
       <c r="G17" s="5">
-        <f>(B17+D17)*1.6/7.4</f>
+        <f t="shared" si="2"/>
         <v>45.6216216216216</v>
       </c>
       <c r="J17" s="8"/>
@@ -3788,19 +3795,19 @@
         <v>2</v>
       </c>
       <c r="D18" s="1">
-        <f>C18*50+20</f>
+        <f t="shared" si="0"/>
         <v>120</v>
       </c>
       <c r="E18" s="5">
-        <f>(B18+D18)*1.6/7.4-1.99</f>
+        <f t="shared" si="1"/>
         <v>56.8208108108108</v>
       </c>
       <c r="F18" s="6">
-        <f>E18*1.2</f>
+        <f t="shared" si="3"/>
         <v>68.184972972973</v>
       </c>
       <c r="G18" s="5">
-        <f>(B18+D18)*1.6/7.4</f>
+        <f t="shared" si="2"/>
         <v>58.8108108108108</v>
       </c>
       <c r="J18" s="8"/>
@@ -3816,19 +3823,19 @@
         <v>2.1</v>
       </c>
       <c r="D19" s="1">
-        <f>C19*50+20</f>
+        <f t="shared" si="0"/>
         <v>125</v>
       </c>
       <c r="E19" s="5">
-        <f>(B19+D19)*1.6/7.4-1.99</f>
+        <f t="shared" si="1"/>
         <v>63.7397297297297</v>
       </c>
       <c r="F19" s="6">
-        <f>E19*1.2</f>
+        <f t="shared" si="3"/>
         <v>76.4876756756757</v>
       </c>
       <c r="G19" s="5">
-        <f>(B19+D19)*1.6/7.4</f>
+        <f t="shared" si="2"/>
         <v>65.7297297297297</v>
       </c>
       <c r="J19" s="8"/>
@@ -3844,19 +3851,19 @@
         <v>0.1</v>
       </c>
       <c r="D20" s="1">
-        <f>C20*50+20</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="E20" s="5">
-        <f>(B20+D20)*1.6/7.4-1.99</f>
+        <f t="shared" si="1"/>
         <v>6.01</v>
       </c>
       <c r="F20" s="6">
-        <f>E20*1.2</f>
+        <f t="shared" si="3"/>
         <v>7.212</v>
       </c>
       <c r="G20" s="5">
-        <f>(B20+D20)*1.6/7.4</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="J20" s="8"/>
@@ -3872,19 +3879,19 @@
         <v>0.2</v>
       </c>
       <c r="D21" s="1">
-        <f>C21*50+20</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="E21" s="5">
-        <f>(B21+D21)*1.6/7.4-1.99</f>
+        <f t="shared" si="1"/>
         <v>9.25324324324324</v>
       </c>
       <c r="F21" s="6">
-        <f>E21*1.2</f>
+        <f t="shared" si="3"/>
         <v>11.1038918918919</v>
       </c>
       <c r="G21" s="5">
-        <f>(B21+D21)*1.6/7.4</f>
+        <f t="shared" si="2"/>
         <v>11.2432432432432</v>
       </c>
       <c r="J21" s="8"/>
@@ -3900,19 +3907,19 @@
         <v>0.2</v>
       </c>
       <c r="D22" s="1">
-        <f>C22*50+20</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="E22" s="5">
-        <f>(B22+D22)*1.6/7.4-1.99</f>
+        <f t="shared" si="1"/>
         <v>11.4154054054054</v>
       </c>
       <c r="F22" s="6">
-        <f>E22*1.2</f>
+        <f t="shared" si="3"/>
         <v>13.6984864864865</v>
       </c>
       <c r="G22" s="5">
-        <f>(B22+D22)*1.6/7.4</f>
+        <f t="shared" si="2"/>
         <v>13.4054054054054</v>
       </c>
       <c r="J22" s="8"/>
@@ -3928,19 +3935,19 @@
         <v>0.2</v>
       </c>
       <c r="D23" s="1">
-        <f>C23*50+20</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="E23" s="5">
-        <f>(B23+D23)*1.6/7.4-1.99</f>
+        <f t="shared" si="1"/>
         <v>10.982972972973</v>
       </c>
       <c r="F23" s="6">
-        <f>E23*1.2</f>
+        <f t="shared" si="3"/>
         <v>13.1795675675676</v>
       </c>
       <c r="G23" s="5">
-        <f>(B23+D23)*1.6/7.4</f>
+        <f t="shared" si="2"/>
         <v>12.972972972973</v>
       </c>
       <c r="J23" s="8"/>
@@ -3956,19 +3963,19 @@
         <v>0.2</v>
       </c>
       <c r="D24" s="1">
-        <f>C24*50+20</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="E24" s="5">
-        <f>(B24+D24)*1.6/7.4-1.99</f>
+        <f t="shared" si="1"/>
         <v>12.0640540540541</v>
       </c>
       <c r="F24" s="6">
-        <f>E24*1.2</f>
+        <f t="shared" si="3"/>
         <v>14.4768648648649</v>
       </c>
       <c r="G24" s="5">
-        <f>(B24+D24)*1.6/7.4</f>
+        <f t="shared" si="2"/>
         <v>14.0540540540541</v>
       </c>
       <c r="J24" s="8"/>
@@ -3984,19 +3991,19 @@
         <v>0.2</v>
       </c>
       <c r="D25" s="1">
-        <f>C25*50+20</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="E25" s="5">
-        <f>(B25+D25)*1.6/7.4-1.99</f>
+        <f t="shared" si="1"/>
         <v>12.0640540540541</v>
       </c>
       <c r="F25" s="6">
-        <f>E25*1.2</f>
+        <f t="shared" si="3"/>
         <v>14.4768648648649</v>
       </c>
       <c r="G25" s="5">
-        <f>(B25+D25)*1.6/7.4</f>
+        <f t="shared" si="2"/>
         <v>14.0540540540541</v>
       </c>
       <c r="J25" s="8"/>
@@ -4012,7 +4019,7 @@
         <v>0.2</v>
       </c>
       <c r="D26" s="1">
-        <f>C26*50+20</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="E26" s="5">
@@ -4020,7 +4027,7 @@
         <v>10.3343243243243</v>
       </c>
       <c r="F26" s="6">
-        <f>E26*1.2</f>
+        <f t="shared" si="3"/>
         <v>12.4011891891892</v>
       </c>
       <c r="G26" s="5">
@@ -4044,7 +4051,7 @@
         <v>110</v>
       </c>
       <c r="E27" s="5">
-        <f>(B27+D27)*1.6/7.4-1.99</f>
+        <f t="shared" si="4"/>
         <v>40.1721621621622</v>
       </c>
       <c r="F27" s="6">
@@ -4052,7 +4059,7 @@
         <v>48.2065945945946</v>
       </c>
       <c r="G27" s="5">
-        <f>(B27+D27)*1.6/7.4</f>
+        <f t="shared" si="5"/>
         <v>42.1621621621622</v>
       </c>
       <c r="J27" s="8"/>
@@ -4068,19 +4075,19 @@
         <v>2.2</v>
       </c>
       <c r="D28" s="1">
-        <f>C28*50+20</f>
+        <f t="shared" si="6"/>
         <v>130</v>
       </c>
       <c r="E28" s="5">
-        <f>(B28+D28)*1.6/7.4-1.99</f>
+        <f t="shared" si="4"/>
         <v>46.6586486486486</v>
       </c>
       <c r="F28" s="6">
-        <f>E28*1.2</f>
+        <f t="shared" si="7"/>
         <v>55.9903783783784</v>
       </c>
       <c r="G28" s="5">
-        <f>(B28+D28)*1.6/7.4</f>
+        <f t="shared" si="5"/>
         <v>48.6486486486486</v>
       </c>
     </row>
@@ -4095,271 +4102,280 @@
         <v>2.3</v>
       </c>
       <c r="D29" s="1">
-        <f>C29*50+20</f>
+        <f t="shared" si="6"/>
         <v>135</v>
       </c>
       <c r="E29" s="5">
-        <f>(B29+D29)*1.6/7.4-1.99</f>
+        <f t="shared" si="4"/>
         <v>49.9018918918919</v>
       </c>
       <c r="F29" s="6">
-        <f>E29*1.2</f>
+        <f t="shared" si="7"/>
         <v>59.8822702702703</v>
       </c>
       <c r="G29" s="5">
-        <f>(B29+D29)*1.6/7.4</f>
+        <f t="shared" si="5"/>
         <v>51.8918918918919</v>
       </c>
     </row>
-    <row r="30" spans="4:7">
+    <row r="30" spans="1:7">
+      <c r="A30" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B30" s="1">
+        <v>30</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0.2</v>
+      </c>
       <c r="D30" s="1">
-        <f>C30*50+20</f>
-        <v>20</v>
+        <f t="shared" si="6"/>
+        <v>30</v>
       </c>
       <c r="E30" s="5">
-        <f>(B30+D30)*1.6/7.4-1.99</f>
-        <v>2.33432432432432</v>
+        <f t="shared" si="4"/>
+        <v>10.982972972973</v>
       </c>
       <c r="F30" s="6">
-        <f>E30*1.2</f>
-        <v>2.80118918918919</v>
+        <f t="shared" si="7"/>
+        <v>13.1795675675676</v>
       </c>
       <c r="G30" s="5">
-        <f>(B30+D30)*1.6/7.4</f>
-        <v>4.32432432432432</v>
+        <f t="shared" si="5"/>
+        <v>12.972972972973</v>
       </c>
     </row>
     <row r="31" spans="4:7">
       <c r="D31" s="1">
-        <f>C31*50+20</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="E31" s="5">
-        <f>(B31+D31)*1.6/7.4-1.99</f>
+        <f t="shared" si="4"/>
         <v>2.33432432432432</v>
       </c>
       <c r="F31" s="6">
-        <f>E31*1.2</f>
+        <f t="shared" si="7"/>
         <v>2.80118918918919</v>
       </c>
       <c r="G31" s="5">
-        <f>(B31+D31)*1.6/7.4</f>
+        <f t="shared" si="5"/>
         <v>4.32432432432432</v>
       </c>
     </row>
     <row r="32" spans="4:7">
       <c r="D32" s="1">
-        <f>C32*50+20</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="E32" s="5">
-        <f>(B32+D32)*1.6/7.4-1.99</f>
+        <f t="shared" si="4"/>
         <v>2.33432432432432</v>
       </c>
       <c r="F32" s="6">
-        <f>E32*1.2</f>
+        <f t="shared" si="7"/>
         <v>2.80118918918919</v>
       </c>
       <c r="G32" s="5">
-        <f>(B32+D32)*1.6/7.4</f>
+        <f t="shared" si="5"/>
         <v>4.32432432432432</v>
       </c>
     </row>
     <row r="33" spans="4:7">
       <c r="D33" s="1">
-        <f>C33*50+20</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="E33" s="5">
-        <f>(B33+D33)*1.6/7.4-1.99</f>
+        <f t="shared" si="4"/>
         <v>2.33432432432432</v>
       </c>
       <c r="F33" s="6">
-        <f>E33*1.2</f>
+        <f t="shared" si="7"/>
         <v>2.80118918918919</v>
       </c>
       <c r="G33" s="5">
-        <f>(B33+D33)*1.6/7.4</f>
+        <f t="shared" si="5"/>
         <v>4.32432432432432</v>
       </c>
     </row>
     <row r="34" spans="4:7">
       <c r="D34" s="1">
-        <f>C34*50+20</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="E34" s="5">
-        <f>(B34+D34)*1.6/7.4-1.99</f>
+        <f t="shared" si="4"/>
         <v>2.33432432432432</v>
       </c>
       <c r="F34" s="6">
-        <f>E34*1.2</f>
+        <f t="shared" si="7"/>
         <v>2.80118918918919</v>
       </c>
       <c r="G34" s="5">
-        <f>(B34+D34)*1.6/7.4</f>
+        <f t="shared" si="5"/>
         <v>4.32432432432432</v>
       </c>
     </row>
     <row r="35" spans="4:7">
       <c r="D35" s="1">
-        <f>C35*50+20</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="E35" s="5">
-        <f>(B35+D35)*1.6/7.4-1.99</f>
+        <f t="shared" si="4"/>
         <v>2.33432432432432</v>
       </c>
       <c r="F35" s="6">
-        <f>E35*1.2</f>
+        <f t="shared" si="7"/>
         <v>2.80118918918919</v>
       </c>
       <c r="G35" s="5">
-        <f>(B35+D35)*1.6/7.4</f>
+        <f t="shared" si="5"/>
         <v>4.32432432432432</v>
       </c>
     </row>
     <row r="36" spans="4:7">
       <c r="D36" s="1">
-        <f>C36*50+20</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="E36" s="5">
-        <f>(B36+D36)*1.6/7.4-1.99</f>
+        <f t="shared" si="4"/>
         <v>2.33432432432432</v>
       </c>
       <c r="F36" s="6">
-        <f>E36*1.2</f>
+        <f t="shared" si="7"/>
         <v>2.80118918918919</v>
       </c>
       <c r="G36" s="5">
-        <f>(B36+D36)*1.6/7.4</f>
+        <f t="shared" si="5"/>
         <v>4.32432432432432</v>
       </c>
     </row>
     <row r="37" spans="4:7">
       <c r="D37" s="1">
-        <f>C37*50+20</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="E37" s="5">
-        <f>(B37+D37)*1.6/7.4-1.99</f>
+        <f t="shared" si="4"/>
         <v>2.33432432432432</v>
       </c>
       <c r="F37" s="6">
-        <f>E37*1.2</f>
+        <f t="shared" si="7"/>
         <v>2.80118918918919</v>
       </c>
       <c r="G37" s="5">
-        <f>(B37+D37)*1.6/7.4</f>
+        <f t="shared" si="5"/>
         <v>4.32432432432432</v>
       </c>
     </row>
     <row r="38" spans="4:7">
       <c r="D38" s="1">
-        <f>C38*50+20</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="E38" s="5">
-        <f>(B38+D38)*1.6/7.4-1.99</f>
+        <f t="shared" si="4"/>
         <v>2.33432432432432</v>
       </c>
       <c r="F38" s="6">
-        <f>E38*1.2</f>
+        <f t="shared" si="7"/>
         <v>2.80118918918919</v>
       </c>
       <c r="G38" s="5">
-        <f>(B38+D38)*1.6/7.4</f>
+        <f t="shared" si="5"/>
         <v>4.32432432432432</v>
       </c>
     </row>
     <row r="39" spans="4:7">
       <c r="D39" s="1">
-        <f>C39*50+20</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="E39" s="5">
-        <f>(B39+D39)*1.6/7.4-1.99</f>
+        <f t="shared" si="4"/>
         <v>2.33432432432432</v>
       </c>
       <c r="F39" s="6">
-        <f>E39*1.2</f>
+        <f t="shared" si="7"/>
         <v>2.80118918918919</v>
       </c>
       <c r="G39" s="5">
-        <f>(B39+D39)*1.6/7.4</f>
+        <f t="shared" si="5"/>
         <v>4.32432432432432</v>
       </c>
     </row>
     <row r="40" spans="4:7">
       <c r="D40" s="1">
-        <f>C40*50+20</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="E40" s="5">
-        <f>(B40+D40)*1.6/7.4-1.99</f>
+        <f t="shared" si="4"/>
         <v>2.33432432432432</v>
       </c>
       <c r="F40" s="6">
-        <f>E40*1.2</f>
+        <f t="shared" si="7"/>
         <v>2.80118918918919</v>
       </c>
       <c r="G40" s="5">
-        <f>(B40+D40)*1.6/7.4</f>
+        <f t="shared" si="5"/>
         <v>4.32432432432432</v>
       </c>
     </row>
     <row r="41" spans="4:7">
       <c r="D41" s="1">
-        <f>C41*50+20</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="E41" s="5">
-        <f>(B41+D41)*1.6/7.4-1.99</f>
+        <f t="shared" si="4"/>
         <v>2.33432432432432</v>
       </c>
       <c r="F41" s="6">
-        <f>E41*1.2</f>
+        <f t="shared" si="7"/>
         <v>2.80118918918919</v>
       </c>
       <c r="G41" s="5">
-        <f>(B41+D41)*1.6/7.4</f>
+        <f t="shared" si="5"/>
         <v>4.32432432432432</v>
       </c>
     </row>
     <row r="42" spans="4:7">
       <c r="D42" s="1">
-        <f>C42*50+20</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="E42" s="5">
-        <f>(B42+D42)*1.6/7.4-1.99</f>
+        <f t="shared" si="4"/>
         <v>2.33432432432432</v>
       </c>
       <c r="F42" s="6">
-        <f>E42*1.2</f>
+        <f t="shared" si="7"/>
         <v>2.80118918918919</v>
       </c>
       <c r="G42" s="5">
-        <f>(B42+D42)*1.6/7.4</f>
+        <f t="shared" si="5"/>
         <v>4.32432432432432</v>
       </c>
     </row>
     <row r="43" spans="4:7">
       <c r="D43" s="1">
-        <f>C43*50+20</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="E43" s="5">
-        <f>(B43+D43)*1.6/7.4-1.99</f>
+        <f t="shared" si="4"/>
         <v>2.33432432432432</v>
       </c>
       <c r="F43" s="6">
-        <f>E43*1.2</f>
+        <f t="shared" si="7"/>
         <v>2.80118918918919</v>
       </c>
       <c r="G43" s="5">
-        <f>(B43+D43)*1.6/7.4</f>
+        <f t="shared" si="5"/>
         <v>4.32432432432432</v>
       </c>
     </row>
@@ -4371,7 +4387,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:AA5"/>
   <sheetViews>
@@ -4406,64 +4422,64 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="T1" s="4" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -4474,241 +4490,241 @@
         <v>20.99</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3" spans="8:20">
       <c r="H3" s="3" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="4" spans="1:27">
       <c r="A4" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="U4" s="4" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="V4" s="4" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="W4" s="4" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="X4" s="4" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Y4" s="4" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Z4" s="4" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AA4" s="4" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="5" spans="8:27">
       <c r="H5" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M5" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="O5" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="N5" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>324</v>
-      </c>
       <c r="P5" s="4" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="U5" s="4" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="V5" s="4" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="W5" s="4" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="X5" s="4" t="s">
         <v>122</v>
       </c>
       <c r="Y5" s="4" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Z5" s="4" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AA5" s="4" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>
